--- a/AutomationExcelOperation/AutomationExcelOperation/Data/RawExcel/OtherData.xlsx
+++ b/AutomationExcelOperation/AutomationExcelOperation/Data/RawExcel/OtherData.xlsx
@@ -39,44 +39,44 @@
     <t>English - US</t>
   </si>
   <si>
-    <t>https://cccicimlhr.accenture.com/system/templates/chat/ABS_T&amp;E_Argentina_English/chat.html?subActivity=Chat&amp;entryPointId=1034&amp;templateName=ABS_T&amp;E_Argentina_English&amp;languageCode=en&amp;countryCode=US&amp;ver=v11</t>
-  </si>
-  <si>
     <t>Spanish - AR</t>
   </si>
   <si>
-    <t>https://cccicimlhr.accenture.com/system/templates/chat/ABS_T&amp;E_Argentina_Spanish/chat.html?subActivity=Chat&amp;entryPointId=1040&amp;templateName=ABS_T&amp;E_Argentina_Spanish&amp;languageCode=en&amp;countryCode=US&amp;ver=v11</t>
-  </si>
-  <si>
     <t>MX</t>
   </si>
   <si>
-    <t>https://cccicimlhr.accenture.com/system/templates/chat/ABS_T&amp;E_Mexico_English/chat.html?subActivity=Chat&amp;entryPointId=1036&amp;templateName=ABS_T&amp;E_Mexico_English&amp;languageCode=en&amp;countryCode=US&amp;ver=v11</t>
-  </si>
-  <si>
     <t>Spanish - MX</t>
   </si>
   <si>
-    <t>https://cccicimlhr.accenture.com/system/templates/chat/ABS_T&amp;E_Mexico_Spanish/chat.html?subActivity=Chat&amp;entryPointId=1042&amp;templateName=ABS_T&amp;E_Mexico_Spanish&amp;languageCode=en&amp;countryCode=US&amp;ver=v11</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
-    <t>https://cccicimlhr.accenture.com/system/templates/chat/ABS_T&amp;E_Italy_English/chat.html?subActivity=Chat&amp;entryPointId=1038&amp;templateName=ABS_T&amp;E_Italy_English&amp;languageCode=en&amp;countryCode=US&amp;ver=v11</t>
-  </si>
-  <si>
     <t>Italian - IT</t>
   </si>
   <si>
-    <t>https://cccicimlhr.accenture.com/system/templates/chat/ABS_T&amp;E_Italy_Italian/chat.html?subActivity=Chat&amp;entryPointId=1044&amp;templateName=ABS_T&amp;E_Italy_Italian&amp;languageCode=en&amp;countryCode=US&amp;ver=v11</t>
+    <t>https:///system/templates/chat/ABS_T&amp;E_Argentina_English/chat.html?</t>
+  </si>
+  <si>
+    <t>https://local.com/system/templates/chat/ABS_T&amp;E_Argentina_Spanish/chat.html</t>
+  </si>
+  <si>
+    <t>https://local.com/system/templates/chat/ABS_T&amp;E_Mexico_English/chat.html</t>
+  </si>
+  <si>
+    <t>https://demo.com/system/templates/chat/ABS_T&amp;E_Mexico_Spanish/chat.html</t>
+  </si>
+  <si>
+    <t>https://demo.com/system/templates/chat/ABS_T&amp;E_Italy_English/chat.html</t>
+  </si>
+  <si>
+    <t>https://demo.com/system/templates/chat/ABS_T&amp;E_Italy_Italian/chat.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,12 +101,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -154,10 +148,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -481,57 +475,65 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>